--- a/Mifos Automation Excels/Loan Product/917-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/917-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>productname</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
+    <t>allowPartialPeriodInterestCalcualtion</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -759,185 +762,193 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B28" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B29" s="11">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Loan Product/917-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/917-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -194,12 +194,6 @@
     <t>Overpayment Liability</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Equal principal payments</t>
   </si>
   <si>
@@ -219,6 +213,12 @@
   </si>
   <si>
     <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -277,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -295,7 +295,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -602,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -617,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,11 +652,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>60</v>
+      <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -731,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -755,7 +754,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -811,7 +810,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -831,8 +830,8 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>66</v>
+      <c r="A28" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="B28" s="11">
         <v>10000</v>
@@ -840,7 +839,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>8</v>
@@ -952,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -961,11 +960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>67</v>
+      <c r="A1" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/917-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/917-RBI-EPP-DB-SAR-REC-NON-RNI-CTPD-SAR-MD-TR-1-LateRepayment-Loanproduct.xlsx
@@ -68,9 +68,6 @@
     <t>repaymentstrategy</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>interestcalculationperiod</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -653,10 +653,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -686,7 +686,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>12</v>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -730,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -746,36 +746,36 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
@@ -783,39 +783,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="11">
         <v>10000</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>8</v>
@@ -847,98 +847,98 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -961,10 +961,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
